--- a/src/test/java/resources/LoginResult.xlsx
+++ b/src/test/java/resources/LoginResult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA3_TestAutomation\src\test\java\resources\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Thời gian</t>
   </si>
@@ -92,12 +92,43 @@
   </si>
   <si>
     <t>2025-05-08 21:49:51</t>
+  </si>
+  <si>
+    <t>2025-05-09 13:45:43</t>
+  </si>
+  <si>
+    <t>2025-05-09 13:45:59</t>
+  </si>
+  <si>
+    <t>2025-05-09 13:46:13</t>
+  </si>
+  <si>
+    <t>2025-05-09 13:46:27</t>
+  </si>
+  <si>
+    <t>2025-05-09 13:46:34</t>
+  </si>
+  <si>
+    <t>2025-05-09 15:52:17</t>
+  </si>
+  <si>
+    <t>2025-05-09 15:52:31</t>
+  </si>
+  <si>
+    <t>2025-05-09 15:52:45</t>
+  </si>
+  <si>
+    <t>2025-05-09 15:53:01</t>
+  </si>
+  <si>
+    <t>2025-05-09 15:53:11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -451,163 +482,303 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/src/test/java/resources/LoginResult.xlsx
+++ b/src/test/java/resources/LoginResult.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>Thời gian</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>2025-05-09 15:53:11</t>
+  </si>
+  <si>
+    <t>2025-05-12 20:47:48</t>
+  </si>
+  <si>
+    <t>Timeout - Sai thông tin đăng nhập</t>
+  </si>
+  <si>
+    <t>2025-05-12 20:47:59</t>
+  </si>
+  <si>
+    <t>2025-05-12 20:48:10</t>
+  </si>
+  <si>
+    <t>2025-05-12 20:48:20</t>
+  </si>
+  <si>
+    <t>2025-05-12 20:48:22</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -782,6 +800,76 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
